--- a/Learning-Materials/WSTG-Checklist_v4.2.xlsx
+++ b/Learning-Materials/WSTG-Checklist_v4.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rick\ZAP_DEV\git\wstg\checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRL-VAPT-DIRs\Learning-Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA58328-DBC0-4384-9C46-C2E639842189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85E14C-F2F8-4B58-8450-D3D47A37FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1612,7 +1612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1993,6 +1993,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2011,86 +2026,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -2134,6 +2074,46 @@
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -2664,9 +2644,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A90:E93" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Cryptography"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Objectives" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Objectives" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="37"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2677,9 +2657,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_8" displayName="Table_8" ref="A65:E80" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Data Validation Testing"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Objectives" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Status" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Objectives" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Status" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2690,9 +2670,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_9" displayName="Table_9" ref="A4:E14" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Information Gathering"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Objectives" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Status" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Objectives" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Status" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2705,7 +2685,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Identity Management Testing"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Objectives"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Status" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Status" dataDxfId="36"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2716,9 +2696,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_11" displayName="Table_11" ref="A16:E27" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Configuration and Deploy Management Testing"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Objectives" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Status" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Objectives" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Status" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2742,9 +2722,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_3" displayName="Table_3" ref="A48:E52" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Objectives" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Status" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Objectives" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Status" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2755,9 +2735,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_4" displayName="Table_4" ref="A54:E62" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Session Management Testing"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Objectives" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Status" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Objectives" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Status" dataDxfId="27"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2769,7 +2749,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Client Side Testing"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Objectives" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Objectives" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Status"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Notes"/>
   </tableColumns>
@@ -2781,9 +2761,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_6" displayName="Table_6" ref="A36:E46" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Authentication Testing"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Objectives" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Status" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Objectives" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Status" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2794,9 +2774,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_7" displayName="Table_7" ref="A96:E105" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Business logic Testing"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Objectives" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Status" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Objectives" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Status" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2804,9 +2784,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2844,7 +2824,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2950,7 +2930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3092,7 +3072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3102,38 +3082,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="25" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="6" max="25" width="8.85546875" customWidth="1"/>
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="25.5">
+    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3151,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="51">
+    <row r="5" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -3185,7 +3166,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="23.25">
+    <row r="6" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3200,7 +3181,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="46.5">
+    <row r="7" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3196,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:25" ht="23.25">
+    <row r="8" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3211,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:25" ht="53.25">
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3226,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:25" ht="21.75">
+    <row r="10" spans="1:25" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -3260,7 +3241,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:25" ht="15">
+    <row r="11" spans="1:25" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3256,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3291,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -3323,7 +3304,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:25" ht="21.75">
+    <row r="14" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -3338,13 +3319,13 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:25" ht="38.25">
+    <row r="16" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3361,7 +3342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="58.5">
+    <row r="17" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -3376,7 +3357,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:25" ht="58.5">
+    <row r="18" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3391,7 +3372,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:25" ht="46.5">
+    <row r="19" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -3406,7 +3387,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:25" ht="23.25">
+    <row r="20" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -3421,7 +3402,7 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:25" ht="15">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
@@ -3436,7 +3417,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:25" ht="46.5">
+    <row r="22" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +3432,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:25" ht="15">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
@@ -3486,7 +3467,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
@@ -3521,7 +3502,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
     </row>
-    <row r="25" spans="1:25" ht="13.5">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
@@ -3536,7 +3517,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:25" ht="23.25">
+    <row r="26" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -3551,7 +3532,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:25" ht="23.25">
+    <row r="27" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -3566,13 +3547,13 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:25" ht="25.5">
+    <row r="29" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -3589,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="46.5">
+    <row r="30" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -3604,7 +3585,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:25" ht="35.25">
+    <row r="31" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
@@ -3619,7 +3600,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:25" ht="21.75">
+    <row r="32" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>77</v>
       </c>
@@ -3634,7 +3615,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:25" ht="35.25">
+    <row r="33" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -3649,7 +3630,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:25" ht="46.5">
+    <row r="34" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>83</v>
       </c>
@@ -3664,13 +3645,13 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
     </row>
-    <row r="36" spans="1:25" ht="25.5">
+    <row r="36" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
@@ -3687,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="35.25">
+    <row r="37" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>87</v>
       </c>
@@ -3702,7 +3683,7 @@
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:25" ht="46.5">
+    <row r="38" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>90</v>
       </c>
@@ -3717,7 +3698,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:25" ht="35.25">
+    <row r="39" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
@@ -3732,7 +3713,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:25" ht="23.25">
+    <row r="40" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>96</v>
       </c>
@@ -3747,7 +3728,7 @@
       </c>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:25" ht="23.25">
+    <row r="41" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>99</v>
       </c>
@@ -3782,7 +3763,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" spans="1:25" ht="35.25">
+    <row r="42" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>102</v>
       </c>
@@ -3797,7 +3778,7 @@
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:25" ht="46.5">
+    <row r="43" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>105</v>
       </c>
@@ -3812,7 +3793,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:25" ht="35.25">
+    <row r="44" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -3827,7 +3808,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:25" ht="58.5">
+    <row r="45" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -3842,7 +3823,7 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:25" ht="35.25">
+    <row r="46" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3838,7 @@
       </c>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
@@ -3883,7 +3864,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3900,7 +3881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="35.25">
+    <row r="49" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>118</v>
       </c>
@@ -3915,7 +3896,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:25" ht="15">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>121</v>
       </c>
@@ -3950,7 +3931,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="1:25" ht="23.25">
+    <row r="51" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>124</v>
       </c>
@@ -3985,7 +3966,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
     </row>
-    <row r="52" spans="1:25" ht="35.25">
+    <row r="52" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>127</v>
       </c>
@@ -4000,12 +3981,12 @@
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="25.5">
+    <row r="54" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>130</v>
       </c>
@@ -4022,7 +4003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="69">
+    <row r="55" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>131</v>
       </c>
@@ -4037,7 +4018,7 @@
       </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:25" ht="15">
+    <row r="56" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>134</v>
       </c>
@@ -4052,7 +4033,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:25" ht="23.25">
+    <row r="57" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>137</v>
       </c>
@@ -4067,7 +4048,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:25" ht="35.25">
+    <row r="58" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>140</v>
       </c>
@@ -4082,7 +4063,7 @@
       </c>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:25" ht="23.25">
+    <row r="59" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>143</v>
       </c>
@@ -4097,7 +4078,7 @@
       </c>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:25" ht="35.25">
+    <row r="60" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>146</v>
       </c>
@@ -4112,7 +4093,7 @@
       </c>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:25" ht="15">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>149</v>
       </c>
@@ -4127,7 +4108,7 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:25" ht="23.25">
+    <row r="62" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>152</v>
       </c>
@@ -4142,7 +4123,7 @@
       </c>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:25" ht="23.25">
+    <row r="63" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>155</v>
       </c>
@@ -4157,14 +4138,14 @@
       </c>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:25" ht="23.25">
+    <row r="65" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>158</v>
       </c>
@@ -4181,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="35.25">
+    <row r="66" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>159</v>
       </c>
@@ -4196,7 +4177,7 @@
       </c>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:25" ht="35.25">
+    <row r="67" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>162</v>
       </c>
@@ -4211,7 +4192,7 @@
       </c>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:25" ht="13.5">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>165</v>
       </c>
@@ -4224,7 +4205,7 @@
       </c>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:25" ht="35.25">
+    <row r="69" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>167</v>
       </c>
@@ -4239,7 +4220,7 @@
       </c>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="1:25" ht="35.25">
+    <row r="70" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>170</v>
       </c>
@@ -4254,7 +4235,7 @@
       </c>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:25" ht="23.25">
+    <row r="71" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>173</v>
       </c>
@@ -4269,7 +4250,7 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:25" ht="35.25">
+    <row r="72" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>176</v>
       </c>
@@ -4284,7 +4265,7 @@
       </c>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="1:25" ht="23.25">
+    <row r="73" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>179</v>
       </c>
@@ -4299,7 +4280,7 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="1:25" ht="15">
+    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>182</v>
       </c>
@@ -4314,7 +4295,7 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:25" ht="46.5">
+    <row r="75" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>185</v>
       </c>
@@ -4349,7 +4330,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="1:25" ht="35.25">
+    <row r="76" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>188</v>
       </c>
@@ -4364,7 +4345,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:25" ht="13.5">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>191</v>
       </c>
@@ -4379,7 +4360,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:25" ht="35.25">
+    <row r="78" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>194</v>
       </c>
@@ -4394,7 +4375,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:25" ht="46.5">
+    <row r="79" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>197</v>
       </c>
@@ -4409,7 +4390,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:25" ht="46.5">
+    <row r="80" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>200</v>
       </c>
@@ -4424,7 +4405,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:25" ht="46.5">
+    <row r="81" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>203</v>
       </c>
@@ -4439,7 +4420,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:25" ht="35.25">
+    <row r="82" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>206</v>
       </c>
@@ -4454,7 +4435,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:25" ht="35.25">
+    <row r="83" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>209</v>
       </c>
@@ -4469,7 +4450,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:25" ht="35.25">
+    <row r="84" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>212</v>
       </c>
@@ -4484,7 +4465,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="17"/>
       <c r="C85" s="22"/>
@@ -4510,7 +4491,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>215</v>
       </c>
@@ -4547,7 +4528,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87" spans="1:25" ht="23.25">
+    <row r="87" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>216</v>
       </c>
@@ -4582,7 +4563,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" spans="1:25" ht="13.5">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>219</v>
       </c>
@@ -4615,13 +4596,13 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>221</v>
       </c>
@@ -4638,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="58.5">
+    <row r="91" spans="1:25" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>222</v>
       </c>
@@ -4653,7 +4634,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:25" ht="35.25">
+    <row r="92" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>225</v>
       </c>
@@ -4668,7 +4649,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:25" ht="35.25">
+    <row r="93" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>228</v>
       </c>
@@ -4683,7 +4664,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:25" ht="23.25">
+    <row r="94" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>231</v>
       </c>
@@ -4698,13 +4679,13 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="22"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>234</v>
       </c>
@@ -4721,7 +4702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="58.5">
+    <row r="97" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>235</v>
       </c>
@@ -4736,7 +4717,7 @@
       </c>
       <c r="E97" s="11"/>
     </row>
-    <row r="98" spans="1:5" ht="46.5">
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>238</v>
       </c>
@@ -4751,7 +4732,7 @@
       </c>
       <c r="E98" s="11"/>
     </row>
-    <row r="99" spans="1:5" ht="104.25">
+    <row r="99" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>241</v>
       </c>
@@ -4766,7 +4747,7 @@
       </c>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" ht="35.25">
+    <row r="100" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>244</v>
       </c>
@@ -4781,7 +4762,7 @@
       </c>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" ht="46.5">
+    <row r="101" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>247</v>
       </c>
@@ -4796,7 +4777,7 @@
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" ht="58.5">
+    <row r="102" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>250</v>
       </c>
@@ -4811,7 +4792,7 @@
       </c>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" ht="58.5">
+    <row r="103" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>253</v>
       </c>
@@ -4826,7 +4807,7 @@
       </c>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" ht="69">
+    <row r="104" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>256</v>
       </c>
@@ -4841,7 +4822,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" ht="92.25">
+    <row r="105" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>259</v>
       </c>
@@ -4856,14 +4837,14 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="17"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>262</v>
       </c>
@@ -4880,7 +4861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="23.25">
+    <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>263</v>
       </c>
@@ -4895,7 +4876,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" ht="13.5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>266</v>
       </c>
@@ -4910,7 +4891,7 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="23.25">
+    <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>269</v>
       </c>
@@ -4925,7 +4906,7 @@
       </c>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" ht="23.25">
+    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>272</v>
       </c>
@@ -4940,7 +4921,7 @@
       </c>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" ht="23.25">
+    <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>275</v>
       </c>
@@ -4955,7 +4936,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" ht="23.25">
+    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>278</v>
       </c>
@@ -4970,7 +4951,7 @@
       </c>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" ht="23.25">
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>281</v>
       </c>
@@ -4985,7 +4966,7 @@
       </c>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" ht="23.25">
+    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>284</v>
       </c>
@@ -5000,7 +4981,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" ht="35.25">
+    <row r="116" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>287</v>
       </c>
@@ -5015,7 +4996,7 @@
       </c>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" ht="35.25">
+    <row r="117" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>290</v>
       </c>
@@ -5030,7 +5011,7 @@
       </c>
       <c r="E117" s="11"/>
     </row>
-    <row r="118" spans="1:5" ht="23.25">
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>293</v>
       </c>
@@ -5045,7 +5026,7 @@
       </c>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="1:5" ht="58.5">
+    <row r="119" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>296</v>
       </c>
@@ -5060,7 +5041,7 @@
       </c>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="1:5" ht="35.25">
+    <row r="120" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>299</v>
       </c>
@@ -5075,13 +5056,13 @@
       </c>
       <c r="E120" s="16"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="19"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>302</v>
       </c>
@@ -5098,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="46.5">
+    <row r="123" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>303</v>
       </c>
@@ -5113,1030 +5094,1030 @@
       </c>
       <c r="E123" s="16"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B124" s="17"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
         <v>307</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="17"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="17"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="17"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="17"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="17"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
       <c r="B139" s="17"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
       <c r="B140" s="17"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
       <c r="B141" s="17"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
       <c r="B142" s="17"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
       <c r="B143" s="17"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
       <c r="B148" s="17"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
       <c r="B149" s="17"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="17"/>
       <c r="B150" s="17"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
       <c r="B151" s="17"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
       <c r="B154" s="17"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
       <c r="B155" s="17"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="17"/>
       <c r="B165" s="17"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="17"/>
       <c r="B166" s="17"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="17"/>
       <c r="B167" s="17"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="17"/>
       <c r="B168" s="17"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
       <c r="B169" s="17"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
       <c r="B176" s="17"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="17"/>
       <c r="B177" s="17"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="17"/>
       <c r="B191" s="17"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="17"/>
       <c r="B193" s="17"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="17"/>
       <c r="B194" s="17"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="17"/>
       <c r="B203" s="17"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="17"/>
       <c r="B204" s="17"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="17"/>
       <c r="B206" s="17"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="17"/>
       <c r="B210" s="17"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="17"/>
       <c r="B211" s="17"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
       <c r="B214" s="17"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="17"/>
       <c r="B215" s="17"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="17"/>
       <c r="B216" s="17"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="17"/>
       <c r="B218" s="17"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="17"/>
       <c r="B219" s="17"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="17"/>
       <c r="B220" s="17"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="17"/>
       <c r="B221" s="17"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="17"/>
       <c r="B222" s="17"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="17"/>
       <c r="B223" s="17"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="17"/>
       <c r="B224" s="17"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="17"/>
       <c r="B225" s="17"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="17"/>
       <c r="B226" s="17"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="17"/>
       <c r="B227" s="17"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="17"/>
       <c r="B228" s="17"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="17"/>
       <c r="B229" s="17"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="17"/>
       <c r="B231" s="17"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="17"/>
       <c r="B232" s="17"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="17"/>
       <c r="B233" s="17"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="17"/>
       <c r="B234" s="17"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="17"/>
       <c r="B235" s="17"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="17"/>
       <c r="B237" s="17"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="17"/>
       <c r="B238" s="17"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="17"/>
       <c r="B239" s="17"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="17"/>
       <c r="B240" s="17"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="17"/>
       <c r="B241" s="17"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="17"/>
       <c r="B242" s="17"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="17"/>
       <c r="B243" s="17"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="17"/>
       <c r="B244" s="17"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="17"/>
       <c r="B245" s="17"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="17"/>
       <c r="B246" s="17"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="17"/>
       <c r="B247" s="17"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="17"/>
       <c r="B248" s="17"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="17"/>
       <c r="B249" s="17"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="17"/>
       <c r="B250" s="17"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="17"/>
       <c r="B251" s="17"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="17"/>
       <c r="B252" s="17"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="17"/>
       <c r="B255" s="17"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="17"/>
       <c r="B257" s="17"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="17"/>
       <c r="B258" s="17"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="17"/>
       <c r="B259" s="17"/>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="17"/>
       <c r="B261" s="17"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="17"/>
       <c r="B262" s="17"/>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="17"/>
       <c r="B263" s="17"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="17"/>
       <c r="B264" s="17"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="17"/>
       <c r="B265" s="17"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="17"/>
       <c r="B266" s="17"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="17"/>
       <c r="B267" s="17"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="17"/>
       <c r="B268" s="17"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="17"/>
       <c r="B269" s="17"/>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="17"/>
       <c r="B270" s="17"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="17"/>
       <c r="B271" s="17"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="17"/>
       <c r="B272" s="17"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="17"/>
       <c r="B273" s="17"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="17"/>
       <c r="B274" s="17"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="17"/>
       <c r="B275" s="17"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="17"/>
       <c r="B276" s="17"/>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="17"/>
       <c r="B277" s="17"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="17"/>
       <c r="B278" s="17"/>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="17"/>
       <c r="B279" s="17"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="17"/>
       <c r="B280" s="17"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="17"/>
       <c r="B281" s="17"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="17"/>
       <c r="B282" s="17"/>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="17"/>
       <c r="B283" s="17"/>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="17"/>
       <c r="B284" s="17"/>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="17"/>
       <c r="B285" s="17"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="17"/>
       <c r="B286" s="17"/>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="17"/>
       <c r="B287" s="17"/>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="17"/>
       <c r="B288" s="17"/>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="17"/>
       <c r="B289" s="17"/>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="17"/>
       <c r="B290" s="17"/>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="17"/>
       <c r="B291" s="17"/>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="17"/>
       <c r="B292" s="17"/>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="17"/>
       <c r="B293" s="17"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="17"/>
       <c r="B294" s="17"/>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="17"/>
       <c r="B295" s="17"/>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="17"/>
       <c r="B296" s="17"/>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="17"/>
       <c r="B297" s="17"/>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="17"/>
       <c r="B298" s="17"/>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="17"/>
       <c r="B299" s="17"/>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="17"/>
       <c r="B300" s="17"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="17"/>
       <c r="B301" s="17"/>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="17"/>
       <c r="B302" s="17"/>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="17"/>
       <c r="B303" s="17"/>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="17"/>
       <c r="B304" s="17"/>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="17"/>
       <c r="B305" s="17"/>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="17"/>
       <c r="B306" s="17"/>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="17"/>
       <c r="B307" s="17"/>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="17"/>
       <c r="B308" s="17"/>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="17"/>
       <c r="B309" s="17"/>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="17"/>
       <c r="B310" s="17"/>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="17"/>
       <c r="B311" s="17"/>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="17"/>
       <c r="B312" s="17"/>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="17"/>
       <c r="B313" s="17"/>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="17"/>
       <c r="B315" s="17"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="17"/>
       <c r="B316" s="17"/>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="17"/>
       <c r="B317" s="17"/>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="17"/>
       <c r="B318" s="17"/>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="17"/>
       <c r="B319" s="17"/>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="17"/>
       <c r="B320" s="17"/>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="17"/>
       <c r="B321" s="17"/>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="17"/>
       <c r="B322" s="17"/>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="17"/>
       <c r="B323" s="17"/>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="17"/>
       <c r="B324" s="17"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="17"/>
       <c r="B325" s="17"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="17"/>
       <c r="B326" s="17"/>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="17"/>
       <c r="B327" s="17"/>
       <c r="C327" s="3"/>
@@ -6175,7 +6156,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -6189,7 +6170,7 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>309</v>
       </c>
@@ -6221,7 +6202,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -6249,1027 +6230,1019 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7284,7 +7257,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="4" width="14.7109375" customWidth="1"/>
@@ -7294,53 +7267,53 @@
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="1">
         <f>VLOOKUP(B5,References!A2:B8,2,0)</f>
         <v>3</v>
@@ -7356,15 +7329,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="1">
         <f>VLOOKUP(B6,References!C2:D6,2,0)</f>
         <v>4</v>
@@ -7380,15 +7353,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="1">
         <f>VLOOKUP(B7,References!E2:F6,2,0)</f>
         <v>0</v>
@@ -7404,15 +7377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="1">
         <f>VLOOKUP(B8,References!G3:H8,2,0)</f>
         <v>2</v>
@@ -7428,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7438,29 +7411,29 @@
       <c r="G9" s="1"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="1">
         <f>VLOOKUP(B11,References!I2:J7,2,0)</f>
         <v>1</v>
@@ -7476,15 +7449,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="1">
         <f>VLOOKUP(B12,References!K$2:L$7,2,0)</f>
         <v>5</v>
@@ -7500,15 +7473,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="1">
         <f>VLOOKUP(B13,References!M$2:N$7,2,0)</f>
         <v>4</v>
@@ -7524,15 +7497,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="1">
         <f>VLOOKUP(B14,References!O$2:P$7,2,0)</f>
         <v>3</v>
@@ -7548,60 +7521,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="53">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>3.375</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B20" s="50" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51" t="str">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Low</v>
       </c>
-      <c r="F20" s="51"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B22" s="46" t="s">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>314</v>
       </c>
@@ -7618,7 +7591,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="str">
         <f>IF($B16&lt;3,"-&gt;Low&lt;-","Low")</f>
         <v>-&gt;Low&lt;-</v>
@@ -7637,7 +7610,7 @@
       </c>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="str">
         <f>IF(AND($B16&gt;=3,$B16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
         <v>Moderate</v>
@@ -7656,7 +7629,7 @@
       </c>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="str">
         <f>IF($B16&gt;=6,"-&gt;High&lt;-","High")</f>
         <v>High</v>
@@ -7674,997 +7647,982 @@
         <v>Critical</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:D17"/>
@@ -8672,60 +8630,57 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="critical">
-      <formula>NOT(ISERROR(SEARCH("critical",E20)))</formula>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D26 A24:A26">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="critical">
+      <formula>NOT(ISERROR(SEARCH("critical",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",E20)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",E20)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",E20)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Note">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Note">
       <formula>NOT(ISERROR(SEARCH("Note",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A26 B23:D23">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D26 A24:A26">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",D25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -8806,7 +8761,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
@@ -8826,7 +8781,7 @@
     <col min="16" max="16" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>329</v>
       </c>
@@ -8860,7 +8815,7 @@
       </c>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>366</v>
       </c>
@@ -8910,7 +8865,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>344</v>
       </c>
@@ -8960,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>368</v>
       </c>
@@ -9010,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>330</v>
       </c>
@@ -9060,7 +9015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>377</v>
       </c>
@@ -9110,7 +9065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>384</v>
       </c>
@@ -9152,7 +9107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>389</v>
       </c>
@@ -9178,8 +9133,8 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>331</v>
       </c>
@@ -9213,7 +9168,7 @@
       </c>
       <c r="P10" s="32"/>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>366</v>
       </c>
@@ -9263,7 +9218,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>344</v>
       </c>
@@ -9313,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>332</v>
       </c>
@@ -9363,7 +9318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>396</v>
       </c>
@@ -9413,7 +9368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>401</v>
       </c>
@@ -9463,7 +9418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>409</v>
       </c>
@@ -9505,7 +9460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
@@ -9526,989 +9481,989 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
